--- a/examples/USA OGD/gun offenders/counters_summary.xlsx
+++ b/examples/USA OGD/gun offenders/counters_summary.xlsx
@@ -345,7 +345,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>

--- a/examples/USA OGD/gun offenders/counters_summary.xlsx
+++ b/examples/USA OGD/gun offenders/counters_summary.xlsx
@@ -360,77 +360,102 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>COMPLETENESSMANDATORY</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>COMPLETENESSMANDATORY SCORE</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>COMPLETENESSOPTIONAL</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>COMPLETENESSOPTIONAL SCORE</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>PRECISION</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>PRECISION SCORE</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>BUSINESSRULECOMPLIANCE</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>BUSINESSRULECOMPLIANCE SCORE</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>METADATACOMPLIANCE</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>METADATACOMPLIANCE SCORE</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>UNIQUENESS</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>UNIQUENESSCOMPOSITE</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>UNIQUENESS SCORE</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>NONREDUNDANCY</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>NONREDUNDANCY SCORE</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>SEMANTICCONSISTENCY</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>SEMANTICCONSISTENCY SCORE</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>VALUECONSISTENCY</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>VALUECONSISTENCY SCORE</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
         <is>
           <t>FORMATCONSISTENCY</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>FORMATCONSISTENCYPREFIX</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>VALUECONSISTENCY</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCESIZE</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCETYPE</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCERANGEMIN</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCERANGEMAX</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCEENUM</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>RULECOMPLIANCE</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>MANDATORYCOMPLETENESS</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>OPTIONALCOMPLETENESS</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>AVAILABILITY</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>CONFORMANCE</t>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>FORMATCONSISTENCY SCORE</t>
         </is>
       </c>
     </row>
@@ -441,49 +466,64 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="M2" t="n">
+        <v>0.041667</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>8</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
+      <c r="U2" t="n">
+        <v>0.333333</v>
       </c>
     </row>
     <row r="3">
@@ -517,10 +557,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>0.125</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -535,6 +575,21 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -545,49 +600,64 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>20</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>12</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
+      <c r="U4" t="n">
+        <v>0.833333</v>
       </c>
     </row>
     <row r="5">
@@ -621,10 +691,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K5" t="n">
-        <v>7</v>
+        <v>0.291667</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -639,6 +709,21 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -693,6 +778,21 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -701,10 +801,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.208333</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -734,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -743,6 +843,21 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -797,6 +912,21 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -832,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.041667</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -847,6 +977,21 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -901,6 +1046,21 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -953,6 +1113,21 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -961,10 +1136,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.166667</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -994,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1003,6 +1178,21 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1013,10 +1203,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.166667</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1031,22 +1221,22 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>4</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.166667</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1055,6 +1245,21 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1065,10 +1270,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.166667</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1098,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1107,6 +1312,21 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1117,10 +1337,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.166667</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1150,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1159,6 +1379,21 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
         <v>0</v>
       </c>
     </row>
